--- a/tests/getKey_tests/getKeyTest.xlsx
+++ b/tests/getKey_tests/getKeyTest.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s276315_studenti_polito_it/Documents/LM 2nd/Thesis/qkd-keyserver 2.0/tests/getKey_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="813" documentId="14_{49DE45E0-00B5-44B4-AC40-DE21B5468729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E990396-5367-4A24-BBFD-27D01923C7C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{949EB3CE-7BFC-4AA4-A4C1-316D64692100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" tabRatio="725" xr2:uid="{3DEA3DF6-E954-4F0C-A228-BAFF1AB5EE80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" xr2:uid="{3DEA3DF6-E954-4F0C-A228-BAFF1AB5EE80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="n10s128" sheetId="23" r:id="rId2"/>
     <sheet name="n10s256" sheetId="26" r:id="rId3"/>
     <sheet name="n10s512" sheetId="29" r:id="rId4"/>
@@ -27,7 +27,7 @@
     <sheet name="n100s512" sheetId="42" r:id="rId12"/>
     <sheet name="n100s1024" sheetId="43" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -538,6 +538,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,22 +575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,7 +595,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -662,7 +662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -701,7 +701,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$11:$E$22</c:f>
+              <c:f>Results!$E$11:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -745,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$11:$G$22</c:f>
+              <c:f>Results!$G$11:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ ;[Red]\-0.000\ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -774,16 +774,16 @@
                   <c:v>0.28058000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85180000000000011</c:v>
+                  <c:v>0.8737999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.07778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5292999999999999</c:v>
+                  <c:v>1.5392999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.7960000000000005</c:v>
+                  <c:v>1.8243000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +812,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$11:$E$22</c:f>
+              <c:f>Results!$E$11:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -856,7 +856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$11:$H$22</c:f>
+              <c:f>Results!$H$11:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ ;[Red]\-0.000\ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -885,7 +885,7 @@
                   <c:v>0.18667999999999974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17401999999999984</c:v>
+                  <c:v>0.16664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.17542000000000013</c:v>
@@ -894,7 +894,7 @@
                   <c:v>0.16250000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17109999999999936</c:v>
+                  <c:v>0.17289999999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1027,7 +1027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="468239032"/>
@@ -1117,7 +1117,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1149,7 +1149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="468240016"/>
@@ -1172,8 +1172,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.38832892158040383"/>
           <c:y val="0.90424853104707836"/>
-          <c:w val="0.31782193102911349"/>
-          <c:h val="6.2474948249460205E-2"/>
+          <c:w val="0.23122277384942572"/>
+          <c:h val="5.8823965343611902E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1201,7 +1201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1238,7 +1238,627 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>average execution time on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> master and slave nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>getKey - master</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$E$11:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1-128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1-512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1-1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10-256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100-128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100-256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100-512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100-1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$G$11:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ ;[Red]\-0.000\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.334000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10128000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10094000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000045E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14087999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16471000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20348000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28058000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8737999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.07778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5392999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.8243000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B7F-4152-B57E-6338CCBDFF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>getKeyWithKeyIDs - slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$E$11:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1-128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1-512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1-1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10-256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100-128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100-256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100-512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100-1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$K$11:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ ;[Red]\-0.000\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.5350000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0560000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5470000000000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7450000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10629000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16763999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25268000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89347999999999983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0815199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.8288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B7F-4152-B57E-6338CCBDFF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1406963352"/>
+        <c:axId val="1406967944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1406963352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Request (number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> - key size)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406967944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1406967944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ ;[Red]\-0.000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406963352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1250,6 +1870,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1794,6 +2454,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1832,11 +2995,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A51B39-897C-46D3-948B-3E7E3185DB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2134,43 +3333,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77582D1-0AB1-4B54-96CB-41A6FAD531C6}">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" customWidth="1"/>
-    <col min="8" max="8" width="27.86328125" customWidth="1"/>
-    <col min="9" max="9" width="18.1328125" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" customWidth="1"/>
-    <col min="13" max="13" width="19.73046875" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" customWidth="1"/>
-    <col min="15" max="15" width="59.3984375" customWidth="1"/>
-    <col min="16" max="16" width="62.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="59.42578125" customWidth="1"/>
+    <col min="16" max="16" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="H2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2184,12 +3383,12 @@
       <c r="F3" s="4">
         <v>1024</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +3409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,7 +3430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +3440,7 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6">
         <v>128</v>
       </c>
@@ -2252,7 +3451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="28"/>
@@ -2265,28 +3464,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="50" t="s">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="50" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="43" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +3495,7 @@
       <c r="D10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -2325,7 +3524,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -2336,7 +3535,7 @@
         <f t="shared" ref="D11:D22" si="0">B11*(C11/$F$6)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="55" t="str">
+      <c r="E11" s="47" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,B11,C11)</f>
         <v>1-128</v>
       </c>
@@ -2374,7 +3573,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>1</v>
       </c>
@@ -2385,7 +3584,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="str">
+      <c r="E12" s="45" t="str">
         <f t="shared" ref="E12:E22" si="1">_xlfn.TEXTJOIN("-",TRUE,B12,C12)</f>
         <v>1-256</v>
       </c>
@@ -2423,7 +3622,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>1</v>
       </c>
@@ -2434,7 +3633,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="45" t="str">
         <f t="shared" si="1"/>
         <v>1-512</v>
       </c>
@@ -2472,7 +3671,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>1</v>
       </c>
@@ -2483,7 +3682,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E14" s="53" t="str">
+      <c r="E14" s="45" t="str">
         <f t="shared" si="1"/>
         <v>1-1024</v>
       </c>
@@ -2521,7 +3720,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>10</v>
       </c>
@@ -2532,7 +3731,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="53" t="str">
+      <c r="E15" s="45" t="str">
         <f t="shared" si="1"/>
         <v>10-128</v>
       </c>
@@ -2570,7 +3769,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>10</v>
       </c>
@@ -2581,7 +3780,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E16" s="53" t="str">
+      <c r="E16" s="45" t="str">
         <f t="shared" si="1"/>
         <v>10-256</v>
       </c>
@@ -2619,7 +3818,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -2630,7 +3829,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E17" s="53" t="str">
+      <c r="E17" s="45" t="str">
         <f t="shared" si="1"/>
         <v>10-512</v>
       </c>
@@ -2668,7 +3867,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>10</v>
       </c>
@@ -2679,7 +3878,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E18" s="53" t="str">
+      <c r="E18" s="45" t="str">
         <f t="shared" si="1"/>
         <v>10-1024</v>
       </c>
@@ -2717,7 +3916,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <v>100</v>
       </c>
@@ -2728,45 +3927,45 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E19" s="53" t="str">
+      <c r="E19" s="45" t="str">
         <f t="shared" si="1"/>
         <v>100-128</v>
       </c>
       <c r="F19" s="42">
         <f>n100s128!H4</f>
-        <v>1.02582</v>
+        <v>1.0404399999999998</v>
       </c>
       <c r="G19" s="25">
         <f>n100s128!I4</f>
-        <v>0.85180000000000011</v>
+        <v>0.8737999999999998</v>
       </c>
       <c r="H19" s="25">
         <f t="shared" si="2"/>
-        <v>0.17401999999999984</v>
+        <v>0.16664000000000001</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="3"/>
-        <v>8.5180000000000013E-3</v>
+        <v>8.7379999999999975E-3</v>
       </c>
       <c r="J19" s="25">
         <f>n100s128!H5</f>
-        <v>1.05928</v>
+        <v>1.0412800000000002</v>
       </c>
       <c r="K19" s="25">
         <f>n100s128!I5</f>
-        <v>0.91548000000000007</v>
+        <v>0.89347999999999983</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="4"/>
-        <v>0.14379999999999993</v>
+        <v>0.14780000000000038</v>
       </c>
       <c r="M19" s="26">
         <f t="shared" si="5"/>
-        <v>9.1548000000000011E-3</v>
+        <v>8.934799999999998E-3</v>
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>100</v>
       </c>
@@ -2777,7 +3976,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E20" s="53" t="str">
+      <c r="E20" s="45" t="str">
         <f t="shared" si="1"/>
         <v>100-256</v>
       </c>
@@ -2815,7 +4014,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>100</v>
       </c>
@@ -2826,17 +4025,17 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E21" s="53" t="str">
+      <c r="E21" s="45" t="str">
         <f t="shared" si="1"/>
         <v>100-512</v>
       </c>
       <c r="F21" s="18">
         <f>n100s512!H4</f>
-        <v>1.6918</v>
+        <v>1.7018</v>
       </c>
       <c r="G21" s="19">
         <f>n100s512!I4</f>
-        <v>1.5292999999999999</v>
+        <v>1.5392999999999999</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" si="2"/>
@@ -2844,27 +4043,27 @@
       </c>
       <c r="I21" s="20">
         <f>G21/B21</f>
-        <v>1.5292999999999999E-2</v>
+        <v>1.5392999999999999E-2</v>
       </c>
       <c r="J21" s="19">
         <f>n100s512!H5</f>
-        <v>1.6937000000000002</v>
+        <v>1.6737000000000002</v>
       </c>
       <c r="K21" s="19">
         <f>n100s512!I5</f>
-        <v>1.5398000000000001</v>
+        <v>1.5228000000000002</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="4"/>
-        <v>0.15390000000000015</v>
+        <v>0.15090000000000003</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="5"/>
-        <v>1.5398E-2</v>
+        <v>1.5228000000000002E-2</v>
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39">
         <v>100</v>
       </c>
@@ -2875,49 +4074,49 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E22" s="52" t="str">
+      <c r="E22" s="44" t="str">
         <f t="shared" si="1"/>
         <v>100-1024</v>
       </c>
       <c r="F22" s="13">
         <f>n100s1024!H4</f>
-        <v>1.9670999999999998</v>
+        <v>1.9972000000000001</v>
       </c>
       <c r="G22" s="27">
         <f>n100s1024!I4</f>
-        <v>1.7960000000000005</v>
+        <v>1.8243000000000003</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="2"/>
-        <v>0.17109999999999936</v>
+        <v>0.17289999999999983</v>
       </c>
       <c r="I22" s="23">
         <f>G22/B22</f>
-        <v>1.7960000000000004E-2</v>
+        <v>1.8243000000000002E-2</v>
       </c>
       <c r="J22" s="27">
         <f>n100s1024!H5</f>
-        <v>1.9978000000000002</v>
+        <v>1.9658000000000002</v>
       </c>
       <c r="K22" s="27">
         <f>n100s1024!I5</f>
-        <v>1.8547999999999998</v>
+        <v>1.8288</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="4"/>
-        <v>0.14300000000000046</v>
+        <v>0.13700000000000023</v>
       </c>
       <c r="M22" s="23">
         <f t="shared" si="5"/>
-        <v>1.8547999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+        <v>1.8287999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="28"/>
     </row>
   </sheetData>
@@ -2943,12 +4142,12 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2956,7 +4155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +4169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1.2110000000000001</v>
       </c>
@@ -2978,10 +4177,10 @@
         <v>1.032</v>
       </c>
       <c r="D3" s="35">
-        <v>1.2130000000000001</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="E3" s="36">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -2993,12 +4192,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
-        <v>1.036</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="B4" s="38">
-        <v>0.873</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D4" s="37">
         <v>1.0640000000000001</v>
@@ -3011,14 +4210,14 @@
       </c>
       <c r="H4">
         <f>AVERAGE(A3:A52)</f>
-        <v>1.02582</v>
+        <v>1.0404399999999998</v>
       </c>
       <c r="I4">
         <f>AVERAGE(B3:B52)</f>
-        <v>0.85180000000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.8737999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>1.06</v>
       </c>
@@ -3036,19 +4235,19 @@
       </c>
       <c r="H5">
         <f>AVERAGE(D3:D52)</f>
-        <v>1.05928</v>
+        <v>1.0412800000000002</v>
       </c>
       <c r="I5">
         <f>AVERAGE(E3:E52)</f>
-        <v>0.91548000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.89347999999999983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>1.044</v>
       </c>
       <c r="B6" s="38">
-        <v>0.88200000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="D6" s="37">
         <v>1.0569999999999999</v>
@@ -3057,7 +4256,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.98199999999999998</v>
       </c>
@@ -3071,7 +4270,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>1.0289999999999999</v>
       </c>
@@ -3085,7 +4284,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.99399999999999999</v>
       </c>
@@ -3099,7 +4298,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.96899999999999997</v>
       </c>
@@ -3113,7 +4312,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>1.016</v>
       </c>
@@ -3127,7 +4326,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.95799999999999996</v>
       </c>
@@ -3141,7 +4340,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>1.1719999999999999</v>
       </c>
@@ -3155,7 +4354,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>1.0529999999999999</v>
       </c>
@@ -3169,7 +4368,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>1.02</v>
       </c>
@@ -3177,13 +4376,13 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="D15" s="35">
-        <v>1.286</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="E15" s="36">
-        <v>1.1220000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>1.083</v>
       </c>
@@ -3197,7 +4396,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>1.0669999999999999</v>
       </c>
@@ -3211,7 +4410,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>1.0329999999999999</v>
       </c>
@@ -3222,10 +4421,10 @@
         <v>1.1719999999999999</v>
       </c>
       <c r="E18" s="38">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.97099999999999997</v>
       </c>
@@ -3239,7 +4438,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>1.0329999999999999</v>
       </c>
@@ -3253,7 +4452,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>1.0189999999999999</v>
       </c>
@@ -3267,12 +4466,12 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.93600000000000005</v>
       </c>
       <c r="B22" s="38">
-        <v>0.77100000000000002</v>
+        <v>0.871</v>
       </c>
       <c r="D22" s="37">
         <v>1.1080000000000001</v>
@@ -3281,7 +4480,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>1.1479999999999999</v>
       </c>
@@ -3289,13 +4488,13 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="D23" s="35">
-        <v>1.2430000000000001</v>
+        <v>1.143</v>
       </c>
       <c r="E23" s="36">
-        <v>1.105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>1.026</v>
       </c>
@@ -3309,7 +4508,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>1.0269999999999999</v>
       </c>
@@ -3323,7 +4522,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>1.0940000000000001</v>
       </c>
@@ -3337,7 +4536,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>1.026</v>
       </c>
@@ -3351,7 +4550,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>1.0169999999999999</v>
       </c>
@@ -3365,9 +4564,9 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
-        <v>1</v>
+        <v>1.101</v>
       </c>
       <c r="B29" s="36">
         <v>0.84099999999999997</v>
@@ -3379,12 +4578,12 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
-        <v>0.97</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="B30" s="38">
-        <v>0.80300000000000005</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D30" s="37">
         <v>1.0269999999999999</v>
@@ -3393,7 +4592,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.97899999999999998</v>
       </c>
@@ -3407,12 +4606,12 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.95299999999999996</v>
       </c>
       <c r="B32" s="38">
-        <v>0.78200000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D32" s="37">
         <v>0.97699999999999998</v>
@@ -3421,7 +4620,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>1.1439999999999999</v>
       </c>
@@ -3429,13 +4628,13 @@
         <v>0.98</v>
       </c>
       <c r="D33" s="35">
-        <v>1.327</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="E33" s="36">
-        <v>1.171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>1.0249999999999999</v>
       </c>
@@ -3449,7 +4648,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>1.04</v>
       </c>
@@ -3463,7 +4662,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>1.0740000000000001</v>
       </c>
@@ -3471,13 +4670,13 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="D36" s="37">
-        <v>1.113</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="E36" s="38">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.99399999999999999</v>
       </c>
@@ -3491,7 +4690,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>1.0269999999999999</v>
       </c>
@@ -3505,7 +4704,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.97599999999999998</v>
       </c>
@@ -3519,7 +4718,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>1.0009999999999999</v>
       </c>
@@ -3533,12 +4732,12 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.92200000000000004</v>
       </c>
       <c r="B41" s="36">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="D41" s="35">
         <v>0.93</v>
@@ -3547,12 +4746,12 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
-        <v>0.96899999999999997</v>
+        <v>1.069</v>
       </c>
       <c r="B42" s="38">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D42" s="37">
         <v>0.96499999999999997</v>
@@ -3561,7 +4760,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>1.107</v>
       </c>
@@ -3569,13 +4768,13 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="D43" s="35">
-        <v>1.1779999999999999</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="E43" s="36">
-        <v>1.026</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>1.0660000000000001</v>
       </c>
@@ -3589,7 +4788,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>1.0580000000000001</v>
       </c>
@@ -3603,7 +4802,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>1.0329999999999999</v>
       </c>
@@ -3617,7 +4816,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>1.079</v>
       </c>
@@ -3631,7 +4830,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>1.0109999999999999</v>
       </c>
@@ -3645,12 +4844,12 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
-        <v>0.98899999999999999</v>
+        <v>1.089</v>
       </c>
       <c r="B49" s="36">
-        <v>0.81299999999999994</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D49" s="35">
         <v>0.95799999999999996</v>
@@ -3659,21 +4858,21 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.92200000000000004</v>
       </c>
       <c r="B50" s="38">
-        <v>0.76400000000000001</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D50" s="37">
-        <v>0.999</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E50" s="38">
-        <v>0.86299999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>1.008</v>
       </c>
@@ -3687,18 +4886,18 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
-        <v>0.92</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="B52" s="38">
-        <v>0.75600000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D52" s="37">
-        <v>1.157</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="E52" s="38">
-        <v>1.0309999999999999</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3717,9 +4916,9 @@
       <selection activeCell="G3" sqref="G3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3727,7 +4926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3741,7 +4940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1.266</v>
       </c>
@@ -3764,7 +4963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>1.2250000000000001</v>
       </c>
@@ -3789,7 +4988,7 @@
         <v>1.07778</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>1.254</v>
       </c>
@@ -3814,7 +5013,7 @@
         <v>1.0815199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>1.232</v>
       </c>
@@ -3828,7 +5027,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>1.194</v>
       </c>
@@ -3842,7 +5041,7 @@
         <v>1.0349999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>1.3</v>
       </c>
@@ -3856,7 +5055,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1.2769999999999999</v>
       </c>
@@ -3870,7 +5069,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>1.264</v>
       </c>
@@ -3884,7 +5083,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>1.2290000000000001</v>
       </c>
@@ -3898,7 +5097,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>1.1990000000000001</v>
       </c>
@@ -3912,7 +5111,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>1.353</v>
       </c>
@@ -3926,7 +5125,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>1.256</v>
       </c>
@@ -3940,7 +5139,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>1.22</v>
       </c>
@@ -3954,7 +5153,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>1.1990000000000001</v>
       </c>
@@ -3968,7 +5167,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>1.1850000000000001</v>
       </c>
@@ -3982,7 +5181,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>1.369</v>
       </c>
@@ -3996,7 +5195,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>1.256</v>
       </c>
@@ -4010,7 +5209,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>1.2609999999999999</v>
       </c>
@@ -4024,7 +5223,7 @@
         <v>1.179</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>1.1850000000000001</v>
       </c>
@@ -4038,7 +5237,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>1.1719999999999999</v>
       </c>
@@ -4052,7 +5251,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>1.349</v>
       </c>
@@ -4066,7 +5265,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>1.264</v>
       </c>
@@ -4080,7 +5279,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>1.25</v>
       </c>
@@ -4094,7 +5293,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>1.2190000000000001</v>
       </c>
@@ -4108,7 +5307,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>1.204</v>
       </c>
@@ -4122,7 +5321,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>1.399</v>
       </c>
@@ -4136,7 +5335,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>1.252</v>
       </c>
@@ -4150,7 +5349,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>1.2450000000000001</v>
       </c>
@@ -4164,7 +5363,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>1.218</v>
       </c>
@@ -4178,7 +5377,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>1.262</v>
       </c>
@@ -4192,7 +5391,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>1.3460000000000001</v>
       </c>
@@ -4206,7 +5405,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>1.2130000000000001</v>
       </c>
@@ -4220,7 +5419,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>1.2589999999999999</v>
       </c>
@@ -4234,7 +5433,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>1.387</v>
       </c>
@@ -4248,7 +5447,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>1.202</v>
       </c>
@@ -4262,7 +5461,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>1.3160000000000001</v>
       </c>
@@ -4276,7 +5475,7 @@
         <v>1.153</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>1.2330000000000001</v>
       </c>
@@ -4290,7 +5489,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>1.214</v>
       </c>
@@ -4304,7 +5503,7 @@
         <v>1.0389999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>1.2110000000000001</v>
       </c>
@@ -4318,7 +5517,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>1.234</v>
       </c>
@@ -4332,7 +5531,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>1.3440000000000001</v>
       </c>
@@ -4346,7 +5545,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>1.3160000000000001</v>
       </c>
@@ -4360,7 +5559,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>1.1970000000000001</v>
       </c>
@@ -4374,7 +5573,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>1.2070000000000001</v>
       </c>
@@ -4388,7 +5587,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>1.194</v>
       </c>
@@ -4402,7 +5601,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>1.319</v>
       </c>
@@ -4416,7 +5615,7 @@
         <v>1.196</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>1.2869999999999999</v>
       </c>
@@ -4430,7 +5629,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>1.248</v>
       </c>
@@ -4444,7 +5643,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>1.1739999999999999</v>
       </c>
@@ -4458,7 +5657,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>1.2010000000000001</v>
       </c>
@@ -4485,12 +5684,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4498,7 +5697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +5711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1.774</v>
       </c>
@@ -4523,7 +5722,7 @@
         <v>1.619</v>
       </c>
       <c r="E3" s="36">
-        <v>1.4810000000000001</v>
+        <v>1.411</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -4535,12 +5734,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
-        <v>1.597</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="B4" s="38">
-        <v>1.4410000000000001</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="D4" s="37">
         <v>1.617</v>
@@ -4553,14 +5752,14 @@
       </c>
       <c r="H4">
         <f>AVERAGE(A3:A12)</f>
-        <v>1.6918</v>
+        <v>1.7018</v>
       </c>
       <c r="I4">
         <f>AVERAGE(B3:B12)</f>
-        <v>1.5292999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.5392999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>1.7030000000000001</v>
       </c>
@@ -4578,14 +5777,14 @@
       </c>
       <c r="H5">
         <f>AVERAGE(D3:D12)</f>
-        <v>1.6937000000000002</v>
+        <v>1.6737000000000002</v>
       </c>
       <c r="I5">
         <f>AVERAGE(E3:E12)</f>
-        <v>1.5398000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.5228000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>1.6579999999999999</v>
       </c>
@@ -4599,7 +5798,7 @@
         <v>1.599</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>1.6739999999999999</v>
       </c>
@@ -4613,7 +5812,7 @@
         <v>1.5780000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>1.724</v>
       </c>
@@ -4621,13 +5820,13 @@
         <v>1.544</v>
       </c>
       <c r="D8" s="37">
-        <v>1.718</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="E8" s="38">
         <v>1.58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1.6830000000000001</v>
       </c>
@@ -4641,7 +5840,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>1.603</v>
       </c>
@@ -4655,7 +5854,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>1.712</v>
       </c>
@@ -4663,13 +5862,13 @@
         <v>1.52</v>
       </c>
       <c r="D11" s="35">
-        <v>1.7090000000000001</v>
+        <v>1.609</v>
       </c>
       <c r="E11" s="36">
-        <v>1.538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.4379999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>1.79</v>
       </c>
@@ -4696,12 +5895,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4709,7 +5908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4723,18 +5922,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
-        <v>1.97</v>
+        <v>2.173</v>
       </c>
       <c r="B3" s="36">
-        <v>1.79</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="D3" s="35">
-        <v>2.016</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="E3" s="36">
-        <v>1.8720000000000001</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -4746,7 +5945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>1.9990000000000001</v>
       </c>
@@ -4754,7 +5953,7 @@
         <v>1.796</v>
       </c>
       <c r="D4" s="37">
-        <v>2.0430000000000001</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="E4" s="38">
         <v>1.903</v>
@@ -4764,14 +5963,14 @@
       </c>
       <c r="H4">
         <f>AVERAGE(A3:A12)</f>
-        <v>1.9670999999999998</v>
+        <v>1.9972000000000001</v>
       </c>
       <c r="I4">
         <f>AVERAGE(B3:B12)</f>
-        <v>1.7960000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.8243000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>1.98</v>
       </c>
@@ -4779,40 +5978,40 @@
         <v>1.804</v>
       </c>
       <c r="D5" s="35">
-        <v>1.9890000000000001</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="E5" s="36">
-        <v>1.857</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
       </c>
       <c r="H5">
         <f>AVERAGE(D3:D12)</f>
-        <v>1.9978000000000002</v>
+        <v>1.9658000000000002</v>
       </c>
       <c r="I5">
         <f>AVERAGE(E3:E12)</f>
-        <v>1.8547999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.8288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
-        <v>1.992</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="B6" s="38">
         <v>1.796</v>
       </c>
       <c r="D6" s="37">
-        <v>2.0030000000000001</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="E6" s="38">
         <v>1.82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
-        <v>1.8919999999999999</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="B7" s="36">
         <v>1.778</v>
@@ -4824,7 +6023,7 @@
         <v>1.851</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>1.9970000000000001</v>
       </c>
@@ -4838,7 +6037,7 @@
         <v>1.865</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1.974</v>
       </c>
@@ -4846,15 +6045,15 @@
         <v>1.8029999999999999</v>
       </c>
       <c r="D9" s="35">
-        <v>2.0870000000000002</v>
+        <v>1.9390000000000001</v>
       </c>
       <c r="E9" s="36">
-        <v>1.9490000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
-        <v>1.843</v>
+        <v>1.893</v>
       </c>
       <c r="B10" s="38">
         <v>1.657</v>
@@ -4866,26 +6065,26 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
-        <v>2.0209999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="B11" s="36">
         <v>1.8959999999999999</v>
       </c>
       <c r="D11" s="35">
-        <v>1.913</v>
+        <v>1.863</v>
       </c>
       <c r="E11" s="36">
-        <v>1.784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
-        <v>2.0030000000000001</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="B12" s="38">
-        <v>1.8240000000000001</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="D12" s="37">
         <v>1.9450000000000001</v>
@@ -4906,13 +6105,13 @@
   </sheetPr>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4920,7 +6119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4934,7 +6133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.33400000000000002</v>
       </c>
@@ -4957,7 +6156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.29199999999999998</v>
       </c>
@@ -4982,7 +6181,7 @@
         <v>0.14087999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -5007,7 +6206,7 @@
         <v>0.10629000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.317</v>
       </c>
@@ -5021,7 +6220,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.34399999999999997</v>
       </c>
@@ -5035,7 +6234,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.30499999999999999</v>
       </c>
@@ -5049,7 +6248,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -5063,7 +6262,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.28999999999999998</v>
       </c>
@@ -5077,7 +6276,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.29399999999999998</v>
       </c>
@@ -5091,7 +6290,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.312</v>
       </c>
@@ -5105,7 +6304,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.29599999999999999</v>
       </c>
@@ -5119,7 +6318,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.29899999999999999</v>
       </c>
@@ -5133,7 +6332,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.32700000000000001</v>
       </c>
@@ -5147,7 +6346,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.35799999999999998</v>
       </c>
@@ -5161,7 +6360,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.29599999999999999</v>
       </c>
@@ -5175,7 +6374,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.28899999999999998</v>
       </c>
@@ -5189,7 +6388,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.26300000000000001</v>
       </c>
@@ -5203,7 +6402,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.313</v>
       </c>
@@ -5217,7 +6416,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.32100000000000001</v>
       </c>
@@ -5231,7 +6430,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.30499999999999999</v>
       </c>
@@ -5245,7 +6444,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.30499999999999999</v>
       </c>
@@ -5259,7 +6458,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.314</v>
       </c>
@@ -5273,7 +6472,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.33900000000000002</v>
       </c>
@@ -5287,7 +6486,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.307</v>
       </c>
@@ -5301,7 +6500,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.315</v>
       </c>
@@ -5315,7 +6514,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.318</v>
       </c>
@@ -5329,7 +6528,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.29399999999999998</v>
       </c>
@@ -5343,7 +6542,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.29699999999999999</v>
       </c>
@@ -5357,7 +6556,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -5371,7 +6570,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.29399999999999998</v>
       </c>
@@ -5385,7 +6584,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.318</v>
       </c>
@@ -5399,7 +6598,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.308</v>
       </c>
@@ -5413,7 +6612,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.33600000000000002</v>
       </c>
@@ -5427,7 +6626,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.31900000000000001</v>
       </c>
@@ -5441,7 +6640,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.31</v>
       </c>
@@ -5455,7 +6654,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.29499999999999998</v>
       </c>
@@ -5469,7 +6668,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -5483,7 +6682,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.30399999999999999</v>
       </c>
@@ -5497,7 +6696,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.31900000000000001</v>
       </c>
@@ -5511,7 +6710,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.28699999999999998</v>
       </c>
@@ -5525,7 +6724,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.30599999999999999</v>
       </c>
@@ -5539,7 +6738,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.31</v>
       </c>
@@ -5553,7 +6752,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.30499999999999999</v>
       </c>
@@ -5567,7 +6766,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.28799999999999998</v>
       </c>
@@ -5581,7 +6780,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.32200000000000001</v>
       </c>
@@ -5595,7 +6794,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.36099999999999999</v>
       </c>
@@ -5609,7 +6808,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.28599999999999998</v>
       </c>
@@ -5623,7 +6822,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.28299999999999997</v>
       </c>
@@ -5637,7 +6836,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.29799999999999999</v>
       </c>
@@ -5651,7 +6850,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.32200000000000001</v>
       </c>
@@ -5665,7 +6864,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.30399999999999999</v>
       </c>
@@ -5679,7 +6878,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.28599999999999998</v>
       </c>
@@ -5693,7 +6892,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -5707,7 +6906,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.33500000000000002</v>
       </c>
@@ -5721,7 +6920,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.29399999999999998</v>
       </c>
@@ -5735,7 +6934,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -5749,7 +6948,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.3</v>
       </c>
@@ -5763,7 +6962,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.33500000000000002</v>
       </c>
@@ -5777,7 +6976,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.316</v>
       </c>
@@ -5791,7 +6990,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.32400000000000001</v>
       </c>
@@ -5805,7 +7004,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.30199999999999999</v>
       </c>
@@ -5819,7 +7018,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.41699999999999998</v>
       </c>
@@ -5833,7 +7032,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.311</v>
       </c>
@@ -5847,7 +7046,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.29799999999999999</v>
       </c>
@@ -5861,7 +7060,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.29499999999999998</v>
       </c>
@@ -5875,7 +7074,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.30099999999999999</v>
       </c>
@@ -5889,7 +7088,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.33300000000000002</v>
       </c>
@@ -5903,7 +7102,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.309</v>
       </c>
@@ -5917,7 +7116,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.315</v>
       </c>
@@ -5931,7 +7130,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.29099999999999998</v>
       </c>
@@ -5945,7 +7144,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -5959,7 +7158,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.30399999999999999</v>
       </c>
@@ -5973,7 +7172,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.309</v>
       </c>
@@ -5987,7 +7186,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.309</v>
       </c>
@@ -6001,7 +7200,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.29399999999999998</v>
       </c>
@@ -6015,7 +7214,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.28499999999999998</v>
       </c>
@@ -6029,7 +7228,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.30499999999999999</v>
       </c>
@@ -6043,7 +7242,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -6057,7 +7256,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.315</v>
       </c>
@@ -6071,7 +7270,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.30399999999999999</v>
       </c>
@@ -6085,7 +7284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.30299999999999999</v>
       </c>
@@ -6099,7 +7298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -6113,7 +7312,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.28899999999999998</v>
       </c>
@@ -6127,7 +7326,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.3</v>
       </c>
@@ -6141,7 +7340,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.29799999999999999</v>
       </c>
@@ -6155,7 +7354,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.308</v>
       </c>
@@ -6169,7 +7368,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.31900000000000001</v>
       </c>
@@ -6183,7 +7382,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -6197,7 +7396,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.29199999999999998</v>
       </c>
@@ -6211,7 +7410,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.29399999999999998</v>
       </c>
@@ -6225,7 +7424,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.29199999999999998</v>
       </c>
@@ -6239,7 +7438,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.27900000000000003</v>
       </c>
@@ -6253,7 +7452,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.29599999999999999</v>
       </c>
@@ -6267,7 +7466,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.307</v>
       </c>
@@ -6281,7 +7480,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.29799999999999999</v>
       </c>
@@ -6295,7 +7494,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.315</v>
       </c>
@@ -6309,7 +7508,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.308</v>
       </c>
@@ -6323,7 +7522,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.29299999999999998</v>
       </c>
@@ -6337,7 +7536,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.29199999999999998</v>
       </c>
@@ -6351,7 +7550,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.27500000000000002</v>
       </c>
@@ -6381,9 +7580,9 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -6391,7 +7590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6405,7 +7604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.34599999999999997</v>
       </c>
@@ -6428,7 +7627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.318</v>
       </c>
@@ -6453,7 +7652,7 @@
         <v>0.16471000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.317</v>
       </c>
@@ -6478,7 +7677,7 @@
         <v>0.12610000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.32900000000000001</v>
       </c>
@@ -6492,7 +7691,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.315</v>
       </c>
@@ -6506,7 +7705,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.32500000000000001</v>
       </c>
@@ -6520,7 +7719,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.34599999999999997</v>
       </c>
@@ -6534,7 +7733,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.32800000000000001</v>
       </c>
@@ -6548,7 +7747,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.32400000000000001</v>
       </c>
@@ -6562,7 +7761,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.33800000000000002</v>
       </c>
@@ -6576,7 +7775,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.33200000000000002</v>
       </c>
@@ -6590,7 +7789,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.35399999999999998</v>
       </c>
@@ -6604,7 +7803,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.32900000000000001</v>
       </c>
@@ -6618,7 +7817,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.32300000000000001</v>
       </c>
@@ -6632,7 +7831,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.36899999999999999</v>
       </c>
@@ -6646,7 +7845,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.34699999999999998</v>
       </c>
@@ -6660,7 +7859,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.311</v>
       </c>
@@ -6674,7 +7873,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.33100000000000002</v>
       </c>
@@ -6688,7 +7887,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.35</v>
       </c>
@@ -6702,7 +7901,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.32200000000000001</v>
       </c>
@@ -6716,7 +7915,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.317</v>
       </c>
@@ -6730,7 +7929,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.32800000000000001</v>
       </c>
@@ -6744,7 +7943,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.32700000000000001</v>
       </c>
@@ -6758,7 +7957,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.32100000000000001</v>
       </c>
@@ -6772,7 +7971,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.376</v>
       </c>
@@ -6786,7 +7985,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.32400000000000001</v>
       </c>
@@ -6800,7 +7999,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.313</v>
       </c>
@@ -6814,7 +8013,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.34</v>
       </c>
@@ -6828,7 +8027,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.34300000000000003</v>
       </c>
@@ -6842,7 +8041,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.33300000000000002</v>
       </c>
@@ -6856,7 +8055,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.42799999999999999</v>
       </c>
@@ -6870,7 +8069,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.33300000000000002</v>
       </c>
@@ -6884,7 +8083,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.33</v>
       </c>
@@ -6898,7 +8097,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.307</v>
       </c>
@@ -6912,7 +8111,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.32200000000000001</v>
       </c>
@@ -6926,7 +8125,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.33100000000000002</v>
       </c>
@@ -6940,7 +8139,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.316</v>
       </c>
@@ -6954,7 +8153,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.33400000000000002</v>
       </c>
@@ -6968,7 +8167,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.34899999999999998</v>
       </c>
@@ -6982,7 +8181,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.31900000000000001</v>
       </c>
@@ -6996,7 +8195,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.32100000000000001</v>
       </c>
@@ -7010,7 +8209,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.33500000000000002</v>
       </c>
@@ -7024,7 +8223,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.316</v>
       </c>
@@ -7038,7 +8237,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.34100000000000003</v>
       </c>
@@ -7052,7 +8251,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.32900000000000001</v>
       </c>
@@ -7066,7 +8265,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.373</v>
       </c>
@@ -7080,7 +8279,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.32900000000000001</v>
       </c>
@@ -7094,7 +8293,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.32500000000000001</v>
       </c>
@@ -7108,7 +8307,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.33900000000000002</v>
       </c>
@@ -7122,7 +8321,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.38</v>
       </c>
@@ -7136,7 +8335,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.38100000000000001</v>
       </c>
@@ -7150,7 +8349,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.29299999999999998</v>
       </c>
@@ -7164,7 +8363,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.35699999999999998</v>
       </c>
@@ -7178,7 +8377,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.32400000000000001</v>
       </c>
@@ -7192,7 +8391,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.32600000000000001</v>
       </c>
@@ -7206,7 +8405,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.32</v>
       </c>
@@ -7220,7 +8419,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.33700000000000002</v>
       </c>
@@ -7234,7 +8433,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.33600000000000002</v>
       </c>
@@ -7248,7 +8447,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.439</v>
       </c>
@@ -7262,7 +8461,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.31900000000000001</v>
       </c>
@@ -7276,7 +8475,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.34599999999999997</v>
       </c>
@@ -7290,7 +8489,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.33100000000000002</v>
       </c>
@@ -7304,7 +8503,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.33400000000000002</v>
       </c>
@@ -7318,7 +8517,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.313</v>
       </c>
@@ -7332,7 +8531,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.31</v>
       </c>
@@ -7346,7 +8545,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.32400000000000001</v>
       </c>
@@ -7360,7 +8559,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.435</v>
       </c>
@@ -7374,7 +8573,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.32500000000000001</v>
       </c>
@@ -7388,7 +8587,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.35599999999999998</v>
       </c>
@@ -7402,7 +8601,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.34100000000000003</v>
       </c>
@@ -7416,7 +8615,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.33</v>
       </c>
@@ -7430,7 +8629,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.33700000000000002</v>
       </c>
@@ -7444,7 +8643,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.314</v>
       </c>
@@ -7458,7 +8657,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.371</v>
       </c>
@@ -7472,7 +8671,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.33500000000000002</v>
       </c>
@@ -7486,7 +8685,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.34699999999999998</v>
       </c>
@@ -7500,7 +8699,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.33900000000000002</v>
       </c>
@@ -7514,7 +8713,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.34399999999999997</v>
       </c>
@@ -7528,7 +8727,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.32500000000000001</v>
       </c>
@@ -7542,7 +8741,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.32200000000000001</v>
       </c>
@@ -7556,7 +8755,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.35699999999999998</v>
       </c>
@@ -7570,7 +8769,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.32500000000000001</v>
       </c>
@@ -7584,7 +8783,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.32400000000000001</v>
       </c>
@@ -7598,7 +8797,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.46700000000000003</v>
       </c>
@@ -7612,7 +8811,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.33800000000000002</v>
       </c>
@@ -7626,7 +8825,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.33400000000000002</v>
       </c>
@@ -7640,7 +8839,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.32</v>
       </c>
@@ -7654,7 +8853,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.308</v>
       </c>
@@ -7668,7 +8867,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.32400000000000001</v>
       </c>
@@ -7682,7 +8881,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.307</v>
       </c>
@@ -7696,7 +8895,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.314</v>
       </c>
@@ -7710,7 +8909,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.316</v>
       </c>
@@ -7724,7 +8923,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.35099999999999998</v>
       </c>
@@ -7738,7 +8937,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.315</v>
       </c>
@@ -7752,7 +8951,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.315</v>
       </c>
@@ -7766,7 +8965,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.318</v>
       </c>
@@ -7780,7 +8979,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.30299999999999999</v>
       </c>
@@ -7794,7 +8993,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.32600000000000001</v>
       </c>
@@ -7808,7 +9007,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.35099999999999998</v>
       </c>
@@ -7822,7 +9021,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.317</v>
       </c>
@@ -7852,9 +9051,9 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -7862,7 +9061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7876,7 +9075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.44700000000000001</v>
       </c>
@@ -7899,7 +9098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.39400000000000002</v>
       </c>
@@ -7924,7 +9123,7 @@
         <v>0.20348000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.38900000000000001</v>
       </c>
@@ -7949,7 +9148,7 @@
         <v>0.16763999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.38800000000000001</v>
       </c>
@@ -7963,7 +9162,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.36199999999999999</v>
       </c>
@@ -7977,7 +9176,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.35199999999999998</v>
       </c>
@@ -7991,7 +9190,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.36399999999999999</v>
       </c>
@@ -8005,7 +9204,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.377</v>
       </c>
@@ -8019,7 +9218,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.36399999999999999</v>
       </c>
@@ -8033,7 +9232,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.38300000000000001</v>
       </c>
@@ -8047,7 +9246,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.34499999999999997</v>
       </c>
@@ -8061,7 +9260,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.34499999999999997</v>
       </c>
@@ -8075,7 +9274,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.38</v>
       </c>
@@ -8089,7 +9288,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.34699999999999998</v>
       </c>
@@ -8103,7 +9302,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.36599999999999999</v>
       </c>
@@ -8117,7 +9316,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.35199999999999998</v>
       </c>
@@ -8131,7 +9330,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.377</v>
       </c>
@@ -8145,7 +9344,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.35499999999999998</v>
       </c>
@@ -8159,7 +9358,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.38400000000000001</v>
       </c>
@@ -8173,7 +9372,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.375</v>
       </c>
@@ -8187,7 +9386,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.36199999999999999</v>
       </c>
@@ -8201,7 +9400,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.35499999999999998</v>
       </c>
@@ -8215,7 +9414,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.37</v>
       </c>
@@ -8229,7 +9428,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.34899999999999998</v>
       </c>
@@ -8243,7 +9442,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.34200000000000003</v>
       </c>
@@ -8257,7 +9456,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.41299999999999998</v>
       </c>
@@ -8271,7 +9470,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.36699999999999999</v>
       </c>
@@ -8285,7 +9484,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.36899999999999999</v>
       </c>
@@ -8299,7 +9498,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.34899999999999998</v>
       </c>
@@ -8313,7 +9512,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.38300000000000001</v>
       </c>
@@ -8327,7 +9526,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.34799999999999998</v>
       </c>
@@ -8341,7 +9540,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.37</v>
       </c>
@@ -8355,7 +9554,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.375</v>
       </c>
@@ -8369,7 +9568,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.36</v>
       </c>
@@ -8383,7 +9582,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.38900000000000001</v>
       </c>
@@ -8397,7 +9596,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.39700000000000002</v>
       </c>
@@ -8411,7 +9610,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.34</v>
       </c>
@@ -8425,7 +9624,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.377</v>
       </c>
@@ -8439,7 +9638,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.34799999999999998</v>
       </c>
@@ -8453,7 +9652,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.374</v>
       </c>
@@ -8467,7 +9666,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.35099999999999998</v>
       </c>
@@ -8481,7 +9680,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.35699999999999998</v>
       </c>
@@ -8495,7 +9694,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.36499999999999999</v>
       </c>
@@ -8509,7 +9708,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.36299999999999999</v>
       </c>
@@ -8523,7 +9722,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.36699999999999999</v>
       </c>
@@ -8537,7 +9736,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.375</v>
       </c>
@@ -8551,7 +9750,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.38</v>
       </c>
@@ -8565,7 +9764,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.39400000000000002</v>
       </c>
@@ -8579,7 +9778,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.36799999999999999</v>
       </c>
@@ -8593,7 +9792,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.35799999999999998</v>
       </c>
@@ -8623,9 +9822,9 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -8633,7 +9832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -8647,7 +9846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.47599999999999998</v>
       </c>
@@ -8670,7 +9869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.72799999999999998</v>
       </c>
@@ -8695,7 +9894,7 @@
         <v>0.28058000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.42599999999999999</v>
       </c>
@@ -8720,7 +9919,7 @@
         <v>0.25268000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.443</v>
       </c>
@@ -8734,7 +9933,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.436</v>
       </c>
@@ -8748,7 +9947,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.45200000000000001</v>
       </c>
@@ -8762,7 +9961,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.46300000000000002</v>
       </c>
@@ -8776,7 +9975,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.433</v>
       </c>
@@ -8790,7 +9989,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.443</v>
       </c>
@@ -8804,7 +10003,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.46300000000000002</v>
       </c>
@@ -8818,7 +10017,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.47699999999999998</v>
       </c>
@@ -8832,7 +10031,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.42899999999999999</v>
       </c>
@@ -8846,7 +10045,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.45600000000000002</v>
       </c>
@@ -8860,7 +10059,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.42899999999999999</v>
       </c>
@@ -8874,7 +10073,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.78600000000000003</v>
       </c>
@@ -8888,7 +10087,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.44500000000000001</v>
       </c>
@@ -8902,7 +10101,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.42499999999999999</v>
       </c>
@@ -8916,7 +10115,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.435</v>
       </c>
@@ -8930,7 +10129,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.44400000000000001</v>
       </c>
@@ -8944,7 +10143,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.442</v>
       </c>
@@ -8958,7 +10157,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.499</v>
       </c>
@@ -8972,7 +10171,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.45500000000000002</v>
       </c>
@@ -8986,7 +10185,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.434</v>
       </c>
@@ -9000,7 +10199,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.44600000000000001</v>
       </c>
@@ -9014,7 +10213,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.45200000000000001</v>
       </c>
@@ -9028,7 +10227,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.76200000000000001</v>
       </c>
@@ -9042,7 +10241,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.44500000000000001</v>
       </c>
@@ -9056,7 +10255,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.46800000000000003</v>
       </c>
@@ -9070,7 +10269,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.41799999999999998</v>
       </c>
@@ -9084,7 +10283,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.46400000000000002</v>
       </c>
@@ -9098,7 +10297,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.51100000000000001</v>
       </c>
@@ -9112,7 +10311,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.47899999999999998</v>
       </c>
@@ -9126,7 +10325,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.45700000000000002</v>
       </c>
@@ -9140,7 +10339,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.435</v>
       </c>
@@ -9154,7 +10353,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.42899999999999999</v>
       </c>
@@ -9168,7 +10367,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.433</v>
       </c>
@@ -9182,7 +10381,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.45500000000000002</v>
       </c>
@@ -9196,7 +10395,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.432</v>
       </c>
@@ -9210,7 +10409,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.45</v>
       </c>
@@ -9224,7 +10423,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.42599999999999999</v>
       </c>
@@ -9238,7 +10437,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.45500000000000002</v>
       </c>
@@ -9252,7 +10451,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.46400000000000002</v>
       </c>
@@ -9266,7 +10465,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.439</v>
       </c>
@@ -9280,7 +10479,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.42699999999999999</v>
       </c>
@@ -9294,7 +10493,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.46100000000000002</v>
       </c>
@@ -9308,7 +10507,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.436</v>
       </c>
@@ -9322,7 +10521,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.45800000000000002</v>
       </c>
@@ -9336,7 +10535,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.46700000000000003</v>
       </c>
@@ -9350,7 +10549,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.44700000000000001</v>
       </c>
@@ -9364,7 +10563,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.42799999999999999</v>
       </c>
@@ -9394,9 +10593,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -9404,7 +10603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -9418,7 +10617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.28199999999999997</v>
       </c>
@@ -9441,7 +10640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.24199999999999999</v>
       </c>
@@ -9466,7 +10665,7 @@
         <v>9.334000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.33</v>
       </c>
@@ -9491,7 +10690,7 @@
         <v>4.5350000000000008E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.25800000000000001</v>
       </c>
@@ -9505,7 +10704,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.27500000000000002</v>
       </c>
@@ -9519,7 +10718,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.26800000000000002</v>
       </c>
@@ -9533,7 +10732,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.23499999999999999</v>
       </c>
@@ -9547,7 +10746,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.25800000000000001</v>
       </c>
@@ -9561,7 +10760,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.27500000000000002</v>
       </c>
@@ -9575,7 +10774,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.217</v>
       </c>
@@ -9589,7 +10788,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -9603,7 +10802,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.22</v>
       </c>
@@ -9617,7 +10816,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -9631,7 +10830,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -9645,7 +10844,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.224</v>
       </c>
@@ -9659,7 +10858,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.28699999999999998</v>
       </c>
@@ -9673,7 +10872,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.254</v>
       </c>
@@ -9687,7 +10886,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.24299999999999999</v>
       </c>
@@ -9701,7 +10900,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.26800000000000002</v>
       </c>
@@ -9715,7 +10914,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.222</v>
       </c>
@@ -9729,7 +10928,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.25800000000000001</v>
       </c>
@@ -9743,7 +10942,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.38900000000000001</v>
       </c>
@@ -9757,7 +10956,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.249</v>
       </c>
@@ -9771,7 +10970,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.23300000000000001</v>
       </c>
@@ -9785,7 +10984,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.317</v>
       </c>
@@ -9799,7 +10998,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.23599999999999999</v>
       </c>
@@ -9813,7 +11012,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.24099999999999999</v>
       </c>
@@ -9827,7 +11026,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.309</v>
       </c>
@@ -9841,7 +11040,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -9855,7 +11054,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.23599999999999999</v>
       </c>
@@ -9869,7 +11068,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.29299999999999998</v>
       </c>
@@ -9883,7 +11082,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -9897,7 +11096,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.253</v>
       </c>
@@ -9911,7 +11110,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.29499999999999998</v>
       </c>
@@ -9925,7 +11124,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.24199999999999999</v>
       </c>
@@ -9939,7 +11138,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.251</v>
       </c>
@@ -9953,7 +11152,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.28199999999999997</v>
       </c>
@@ -9967,7 +11166,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.27700000000000002</v>
       </c>
@@ -9981,7 +11180,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.252</v>
       </c>
@@ -9995,7 +11194,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.32900000000000001</v>
       </c>
@@ -10009,7 +11208,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.23499999999999999</v>
       </c>
@@ -10023,7 +11222,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.217</v>
       </c>
@@ -10037,7 +11236,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.28000000000000003</v>
       </c>
@@ -10051,7 +11250,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.23400000000000001</v>
       </c>
@@ -10065,7 +11264,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.23200000000000001</v>
       </c>
@@ -10079,7 +11278,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.32200000000000001</v>
       </c>
@@ -10093,7 +11292,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -10107,7 +11306,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -10121,7 +11320,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.30399999999999999</v>
       </c>
@@ -10135,7 +11334,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.23799999999999999</v>
       </c>
@@ -10149,7 +11348,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.22800000000000001</v>
       </c>
@@ -10163,7 +11362,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.27100000000000002</v>
       </c>
@@ -10177,7 +11376,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.224</v>
       </c>
@@ -10191,7 +11390,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.255</v>
       </c>
@@ -10205,7 +11404,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -10219,7 +11418,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -10233,7 +11432,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.23699999999999999</v>
       </c>
@@ -10247,7 +11446,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.29499999999999998</v>
       </c>
@@ -10261,7 +11460,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.23200000000000001</v>
       </c>
@@ -10275,7 +11474,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -10289,7 +11488,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.35199999999999998</v>
       </c>
@@ -10303,7 +11502,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.254</v>
       </c>
@@ -10317,7 +11516,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.27200000000000002</v>
       </c>
@@ -10331,7 +11530,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.32100000000000001</v>
       </c>
@@ -10345,7 +11544,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.249</v>
       </c>
@@ -10359,7 +11558,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.223</v>
       </c>
@@ -10373,7 +11572,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.26700000000000002</v>
       </c>
@@ -10387,7 +11586,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.249</v>
       </c>
@@ -10401,7 +11600,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.215</v>
       </c>
@@ -10415,7 +11614,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.27900000000000003</v>
       </c>
@@ -10429,7 +11628,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.25</v>
       </c>
@@ -10443,7 +11642,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.27200000000000002</v>
       </c>
@@ -10457,7 +11656,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -10471,7 +11670,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.26</v>
       </c>
@@ -10485,7 +11684,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.26800000000000002</v>
       </c>
@@ -10499,7 +11698,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.29699999999999999</v>
       </c>
@@ -10513,7 +11712,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.252</v>
       </c>
@@ -10527,7 +11726,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.26800000000000002</v>
       </c>
@@ -10541,7 +11740,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.28699999999999998</v>
       </c>
@@ -10555,7 +11754,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.32100000000000001</v>
       </c>
@@ -10569,7 +11768,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -10583,7 +11782,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.30099999999999999</v>
       </c>
@@ -10597,7 +11796,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.24199999999999999</v>
       </c>
@@ -10611,7 +11810,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.245</v>
       </c>
@@ -10625,7 +11824,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.27300000000000002</v>
       </c>
@@ -10639,7 +11838,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.23799999999999999</v>
       </c>
@@ -10653,7 +11852,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -10667,7 +11866,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.28299999999999997</v>
       </c>
@@ -10681,7 +11880,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -10695,7 +11894,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -10709,7 +11908,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.27400000000000002</v>
       </c>
@@ -10723,7 +11922,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -10737,7 +11936,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -10751,7 +11950,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.29099999999999998</v>
       </c>
@@ -10765,7 +11964,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.25600000000000001</v>
       </c>
@@ -10779,7 +11978,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.27900000000000003</v>
       </c>
@@ -10793,7 +11992,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.28599999999999998</v>
       </c>
@@ -10807,7 +12006,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.23599999999999999</v>
       </c>
@@ -10821,7 +12020,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.26900000000000002</v>
       </c>
@@ -10835,7 +12034,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.29199999999999998</v>
       </c>
@@ -10865,12 +12064,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -10878,7 +12077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -10892,7 +12091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.27600000000000002</v>
       </c>
@@ -10915,7 +12114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.23100000000000001</v>
       </c>
@@ -10940,7 +12139,7 @@
         <v>0.10128000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.307</v>
       </c>
@@ -10965,7 +12164,7 @@
         <v>6.0560000000000017E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.26500000000000001</v>
       </c>
@@ -10979,7 +12178,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -10993,7 +12192,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.29899999999999999</v>
       </c>
@@ -11007,7 +12206,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.27400000000000002</v>
       </c>
@@ -11021,7 +12220,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.23799999999999999</v>
       </c>
@@ -11035,7 +12234,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.28299999999999997</v>
       </c>
@@ -11049,7 +12248,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.253</v>
       </c>
@@ -11063,7 +12262,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.26100000000000001</v>
       </c>
@@ -11077,7 +12276,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.29499999999999998</v>
       </c>
@@ -11091,7 +12290,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.245</v>
       </c>
@@ -11105,7 +12304,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.23400000000000001</v>
       </c>
@@ -11119,7 +12318,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.309</v>
       </c>
@@ -11133,7 +12332,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.25600000000000001</v>
       </c>
@@ -11147,7 +12346,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -11161,7 +12360,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -11175,7 +12374,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.36199999999999999</v>
       </c>
@@ -11189,7 +12388,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.27400000000000002</v>
       </c>
@@ -11203,7 +12402,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -11217,7 +12416,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.34599999999999997</v>
       </c>
@@ -11231,7 +12430,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.24199999999999999</v>
       </c>
@@ -11245,7 +12444,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.27200000000000002</v>
       </c>
@@ -11259,7 +12458,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.249</v>
       </c>
@@ -11273,7 +12472,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.255</v>
       </c>
@@ -11287,7 +12486,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.28799999999999998</v>
       </c>
@@ -11301,7 +12500,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.248</v>
       </c>
@@ -11315,7 +12514,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.247</v>
       </c>
@@ -11329,7 +12528,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.29399999999999998</v>
       </c>
@@ -11343,7 +12542,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.249</v>
       </c>
@@ -11357,7 +12556,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.24199999999999999</v>
       </c>
@@ -11371,7 +12570,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.29399999999999998</v>
       </c>
@@ -11385,7 +12584,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.29199999999999998</v>
       </c>
@@ -11399,7 +12598,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.248</v>
       </c>
@@ -11413,7 +12612,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.311</v>
       </c>
@@ -11427,7 +12626,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -11441,7 +12640,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.221</v>
       </c>
@@ -11455,7 +12654,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.27100000000000002</v>
       </c>
@@ -11469,7 +12668,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -11483,7 +12682,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.25600000000000001</v>
       </c>
@@ -11497,7 +12696,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.30499999999999999</v>
       </c>
@@ -11511,7 +12710,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.247</v>
       </c>
@@ -11525,7 +12724,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.254</v>
       </c>
@@ -11539,7 +12738,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -11553,7 +12752,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.224</v>
       </c>
@@ -11567,7 +12766,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.23100000000000001</v>
       </c>
@@ -11581,7 +12780,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.30599999999999999</v>
       </c>
@@ -11595,7 +12794,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -11609,7 +12808,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.254</v>
       </c>
@@ -11623,7 +12822,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.31</v>
       </c>
@@ -11637,7 +12836,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.23400000000000001</v>
       </c>
@@ -11651,7 +12850,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.24099999999999999</v>
       </c>
@@ -11665,7 +12864,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.29699999999999999</v>
       </c>
@@ -11679,7 +12878,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.255</v>
       </c>
@@ -11693,7 +12892,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.23599999999999999</v>
       </c>
@@ -11707,7 +12906,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -11721,7 +12920,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.40100000000000002</v>
       </c>
@@ -11735,7 +12934,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.26100000000000001</v>
       </c>
@@ -11749,7 +12948,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.31</v>
       </c>
@@ -11763,7 +12962,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.251</v>
       </c>
@@ -11777,7 +12976,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.223</v>
       </c>
@@ -11791,7 +12990,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.27200000000000002</v>
       </c>
@@ -11805,7 +13004,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.30599999999999999</v>
       </c>
@@ -11819,7 +13018,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.26100000000000001</v>
       </c>
@@ -11833,7 +13032,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.28399999999999997</v>
       </c>
@@ -11847,7 +13046,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.253</v>
       </c>
@@ -11861,7 +13060,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.215</v>
       </c>
@@ -11875,7 +13074,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.28699999999999998</v>
       </c>
@@ -11889,7 +13088,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.214</v>
       </c>
@@ -11903,7 +13102,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.27600000000000002</v>
       </c>
@@ -11917,7 +13116,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.27800000000000002</v>
       </c>
@@ -11931,7 +13130,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.246</v>
       </c>
@@ -11945,7 +13144,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -11959,7 +13158,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.29499999999999998</v>
       </c>
@@ -11973,7 +13172,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.38600000000000001</v>
       </c>
@@ -11987,7 +13186,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -12001,7 +13200,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.248</v>
       </c>
@@ -12015,7 +13214,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.29799999999999999</v>
       </c>
@@ -12029,7 +13228,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.27700000000000002</v>
       </c>
@@ -12043,7 +13242,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.26500000000000001</v>
       </c>
@@ -12057,7 +13256,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.309</v>
       </c>
@@ -12071,7 +13270,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.23699999999999999</v>
       </c>
@@ -12085,7 +13284,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -12099,7 +13298,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -12113,7 +13312,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.247</v>
       </c>
@@ -12127,7 +13326,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.223</v>
       </c>
@@ -12141,7 +13340,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.313</v>
       </c>
@@ -12155,7 +13354,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.55200000000000005</v>
       </c>
@@ -12169,7 +13368,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -12183,7 +13382,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.29599999999999999</v>
       </c>
@@ -12197,7 +13396,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.246</v>
       </c>
@@ -12211,7 +13410,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.23300000000000001</v>
       </c>
@@ -12225,7 +13424,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.28100000000000003</v>
       </c>
@@ -12239,7 +13438,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.307</v>
       </c>
@@ -12253,7 +13452,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.247</v>
       </c>
@@ -12267,7 +13466,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -12281,7 +13480,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.25700000000000001</v>
       </c>
@@ -12295,7 +13494,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.22500000000000001</v>
       </c>
@@ -12309,7 +13508,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.30599999999999999</v>
       </c>
@@ -12339,9 +13538,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -12349,7 +13548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -12363,7 +13562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.28199999999999997</v>
       </c>
@@ -12386,7 +13585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.25900000000000001</v>
       </c>
@@ -12411,7 +13610,7 @@
         <v>0.10094000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.28599999999999998</v>
       </c>
@@ -12436,7 +13635,7 @@
         <v>6.5470000000000028E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.252</v>
       </c>
@@ -12450,7 +13649,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.28599999999999998</v>
       </c>
@@ -12464,7 +13663,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.29599999999999999</v>
       </c>
@@ -12478,7 +13677,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.245</v>
       </c>
@@ -12492,7 +13691,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.24399999999999999</v>
       </c>
@@ -12506,7 +13705,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.33</v>
       </c>
@@ -12520,7 +13719,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.25700000000000001</v>
       </c>
@@ -12534,7 +13733,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.26</v>
       </c>
@@ -12548,7 +13747,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.318</v>
       </c>
@@ -12562,7 +13761,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.246</v>
       </c>
@@ -12576,7 +13775,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -12590,7 +13789,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -12604,7 +13803,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.245</v>
       </c>
@@ -12618,7 +13817,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.251</v>
       </c>
@@ -12632,7 +13831,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.31</v>
       </c>
@@ -12646,7 +13845,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.26400000000000001</v>
       </c>
@@ -12660,7 +13859,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.251</v>
       </c>
@@ -12674,7 +13873,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.28699999999999998</v>
       </c>
@@ -12688,7 +13887,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.23100000000000001</v>
       </c>
@@ -12702,7 +13901,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.25600000000000001</v>
       </c>
@@ -12716,7 +13915,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.28799999999999998</v>
       </c>
@@ -12730,7 +13929,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.26200000000000001</v>
       </c>
@@ -12744,7 +13943,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.24299999999999999</v>
       </c>
@@ -12758,7 +13957,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.29699999999999999</v>
       </c>
@@ -12772,7 +13971,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.247</v>
       </c>
@@ -12786,7 +13985,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.22</v>
       </c>
@@ -12800,7 +13999,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.28699999999999998</v>
       </c>
@@ -12814,7 +14013,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.251</v>
       </c>
@@ -12828,7 +14027,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.28199999999999997</v>
       </c>
@@ -12842,7 +14041,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.30299999999999999</v>
       </c>
@@ -12856,7 +14055,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.245</v>
       </c>
@@ -12870,7 +14069,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.26</v>
       </c>
@@ -12884,7 +14083,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.29799999999999999</v>
       </c>
@@ -12898,7 +14097,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.23899999999999999</v>
       </c>
@@ -12912,7 +14111,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.25600000000000001</v>
       </c>
@@ -12926,7 +14125,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.30499999999999999</v>
       </c>
@@ -12940,7 +14139,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.246</v>
       </c>
@@ -12954,7 +14153,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -12968,7 +14167,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.313</v>
       </c>
@@ -12982,7 +14181,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.27200000000000002</v>
       </c>
@@ -12996,7 +14195,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.22500000000000001</v>
       </c>
@@ -13010,7 +14209,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.32</v>
       </c>
@@ -13024,7 +14223,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.27600000000000002</v>
       </c>
@@ -13038,7 +14237,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.221</v>
       </c>
@@ -13052,7 +14251,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -13066,7 +14265,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.27200000000000002</v>
       </c>
@@ -13080,7 +14279,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.223</v>
       </c>
@@ -13094,7 +14293,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.31</v>
       </c>
@@ -13108,7 +14307,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.224</v>
       </c>
@@ -13122,7 +14321,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -13136,7 +14335,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.27700000000000002</v>
       </c>
@@ -13150,7 +14349,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.26700000000000002</v>
       </c>
@@ -13164,7 +14363,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.246</v>
       </c>
@@ -13178,7 +14377,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.33</v>
       </c>
@@ -13192,7 +14391,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.249</v>
       </c>
@@ -13206,7 +14405,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.26300000000000001</v>
       </c>
@@ -13220,7 +14419,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.314</v>
       </c>
@@ -13234,7 +14433,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.26300000000000001</v>
       </c>
@@ -13248,7 +14447,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.26300000000000001</v>
       </c>
@@ -13262,7 +14461,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.33500000000000002</v>
       </c>
@@ -13276,7 +14475,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.25900000000000001</v>
       </c>
@@ -13290,7 +14489,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.27400000000000002</v>
       </c>
@@ -13304,7 +14503,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.28899999999999998</v>
       </c>
@@ -13318,7 +14517,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.23899999999999999</v>
       </c>
@@ -13332,7 +14531,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.27800000000000002</v>
       </c>
@@ -13346,7 +14545,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.26600000000000001</v>
       </c>
@@ -13360,7 +14559,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.248</v>
       </c>
@@ -13374,7 +14573,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.223</v>
       </c>
@@ -13388,7 +14587,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.28100000000000003</v>
       </c>
@@ -13402,7 +14601,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.23799999999999999</v>
       </c>
@@ -13416,7 +14615,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.24299999999999999</v>
       </c>
@@ -13430,7 +14629,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.30399999999999999</v>
       </c>
@@ -13444,7 +14643,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.22900000000000001</v>
       </c>
@@ -13458,7 +14657,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.254</v>
       </c>
@@ -13472,7 +14671,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.28199999999999997</v>
       </c>
@@ -13486,7 +14685,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.245</v>
       </c>
@@ -13500,7 +14699,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -13514,7 +14713,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.29599999999999999</v>
       </c>
@@ -13528,7 +14727,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -13542,7 +14741,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.25</v>
       </c>
@@ -13556,7 +14755,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.22600000000000001</v>
       </c>
@@ -13570,7 +14769,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.27600000000000002</v>
       </c>
@@ -13584,7 +14783,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.23100000000000001</v>
       </c>
@@ -13598,7 +14797,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.223</v>
       </c>
@@ -13612,7 +14811,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.28100000000000003</v>
       </c>
@@ -13626,7 +14825,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -13640,7 +14839,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.23699999999999999</v>
       </c>
@@ -13654,7 +14853,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.28499999999999998</v>
       </c>
@@ -13668,7 +14867,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.22600000000000001</v>
       </c>
@@ -13682,7 +14881,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.24</v>
       </c>
@@ -13696,7 +14895,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.30499999999999999</v>
       </c>
@@ -13710,7 +14909,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.218</v>
       </c>
@@ -13724,7 +14923,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -13738,7 +14937,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.30599999999999999</v>
       </c>
@@ -13752,7 +14951,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -13766,7 +14965,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.21</v>
       </c>
@@ -13780,7 +14979,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.29299999999999998</v>
       </c>
@@ -13810,9 +15009,9 @@
       <selection activeCell="G3" sqref="G3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -13820,7 +15019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13834,7 +15033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0.28299999999999997</v>
       </c>
@@ -13857,7 +15056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>0.223</v>
       </c>
@@ -13882,7 +15081,7 @@
         <v>9.7000000000000045E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.29299999999999998</v>
       </c>
@@ -13907,7 +15106,7 @@
         <v>4.7450000000000013E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>0.255</v>
       </c>
@@ -13921,7 +15120,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.23699999999999999</v>
       </c>
@@ -13935,7 +15134,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>0.28999999999999998</v>
       </c>
@@ -13949,7 +15148,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.252</v>
       </c>
@@ -13963,7 +15162,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>0.22900000000000001</v>
       </c>
@@ -13977,7 +15176,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>0.27800000000000002</v>
       </c>
@@ -13991,7 +15190,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>0.23499999999999999</v>
       </c>
@@ -14005,7 +15204,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.23400000000000001</v>
       </c>
@@ -14019,7 +15218,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>0.28599999999999998</v>
       </c>
@@ -14033,7 +15232,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>0.24399999999999999</v>
       </c>
@@ -14047,7 +15246,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>0.246</v>
       </c>
@@ -14061,7 +15260,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>0.23200000000000001</v>
       </c>
@@ -14075,7 +15274,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>0.56499999999999995</v>
       </c>
@@ -14089,7 +15288,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>0.24</v>
       </c>
@@ -14103,7 +15302,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>0.29099999999999998</v>
       </c>
@@ -14117,7 +15316,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -14131,7 +15330,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>0.253</v>
       </c>
@@ -14145,7 +15344,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.245</v>
       </c>
@@ -14159,7 +15358,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>0.3</v>
       </c>
@@ -14173,7 +15372,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.23</v>
       </c>
@@ -14187,7 +15386,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>0.245</v>
       </c>
@@ -14201,7 +15400,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.28999999999999998</v>
       </c>
@@ -14215,7 +15414,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -14229,7 +15428,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.245</v>
       </c>
@@ -14243,7 +15442,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>0.28999999999999998</v>
       </c>
@@ -14257,7 +15456,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.246</v>
       </c>
@@ -14271,7 +15470,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>0.24299999999999999</v>
       </c>
@@ -14285,7 +15484,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -14299,7 +15498,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>0.246</v>
       </c>
@@ -14313,7 +15512,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>0.246</v>
       </c>
@@ -14327,7 +15526,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>0.316</v>
       </c>
@@ -14341,7 +15540,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>0.247</v>
       </c>
@@ -14355,7 +15554,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>0.22600000000000001</v>
       </c>
@@ -14369,7 +15568,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>0.311</v>
       </c>
@@ -14383,7 +15582,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>0.251</v>
       </c>
@@ -14397,7 +15596,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>0.26100000000000001</v>
       </c>
@@ -14411,7 +15610,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>0.28599999999999998</v>
       </c>
@@ -14425,7 +15624,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>0.23100000000000001</v>
       </c>
@@ -14439,7 +15638,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>0.251</v>
       </c>
@@ -14453,7 +15652,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>0.29299999999999998</v>
       </c>
@@ -14467,7 +15666,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>0.23799999999999999</v>
       </c>
@@ -14481,7 +15680,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>0.24199999999999999</v>
       </c>
@@ -14495,7 +15694,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.30199999999999999</v>
       </c>
@@ -14509,7 +15708,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.249</v>
       </c>
@@ -14523,7 +15722,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>0.24099999999999999</v>
       </c>
@@ -14537,7 +15736,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.29299999999999998</v>
       </c>
@@ -14551,7 +15750,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>0.253</v>
       </c>
@@ -14565,7 +15764,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.26</v>
       </c>
@@ -14579,7 +15778,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>0.29799999999999999</v>
       </c>
@@ -14593,7 +15792,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.24099999999999999</v>
       </c>
@@ -14607,7 +15806,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>0.252</v>
       </c>
@@ -14621,7 +15820,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>0.27600000000000002</v>
       </c>
@@ -14635,7 +15834,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>0.26200000000000001</v>
       </c>
@@ -14649,7 +15848,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -14663,7 +15862,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>0.28000000000000003</v>
       </c>
@@ -14677,7 +15876,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>0.24399999999999999</v>
       </c>
@@ -14691,7 +15890,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>0.22900000000000001</v>
       </c>
@@ -14705,7 +15904,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>0.317</v>
       </c>
@@ -14719,7 +15918,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>0.22800000000000001</v>
       </c>
@@ -14733,7 +15932,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>0.23599999999999999</v>
       </c>
@@ -14747,7 +15946,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>0.28299999999999997</v>
       </c>
@@ -14761,7 +15960,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -14775,7 +15974,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>0.246</v>
       </c>
@@ -14789,7 +15988,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>0.27100000000000002</v>
       </c>
@@ -14803,7 +16002,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>0.23400000000000001</v>
       </c>
@@ -14817,7 +16016,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>0.42499999999999999</v>
       </c>
@@ -14831,7 +16030,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>0.28499999999999998</v>
       </c>
@@ -14845,7 +16044,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>0.24399999999999999</v>
       </c>
@@ -14859,7 +16058,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>0.23200000000000001</v>
       </c>
@@ -14873,7 +16072,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>0.29499999999999998</v>
       </c>
@@ -14887,7 +16086,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>0.251</v>
       </c>
@@ -14901,7 +16100,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -14915,7 +16114,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>0.30299999999999999</v>
       </c>
@@ -14929,7 +16128,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>0.247</v>
       </c>
@@ -14943,7 +16142,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>0.23100000000000001</v>
       </c>
@@ -14957,7 +16156,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>0.28499999999999998</v>
       </c>
@@ -14971,7 +16170,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>0.246</v>
       </c>
@@ -14985,7 +16184,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>0.24299999999999999</v>
       </c>
@@ -14999,7 +16198,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>0.28100000000000003</v>
       </c>
@@ -15013,7 +16212,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -15027,7 +16226,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>0.248</v>
       </c>
@@ -15041,7 +16240,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>0.29899999999999999</v>
       </c>
@@ -15055,7 +16254,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>0.51</v>
       </c>
@@ -15069,7 +16268,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>0.222</v>
       </c>
@@ -15083,7 +16282,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>0.29099999999999998</v>
       </c>
@@ -15097,7 +16296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>0.25700000000000001</v>
       </c>
@@ -15111,7 +16310,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>0.23899999999999999</v>
       </c>
@@ -15125,7 +16324,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>0.30099999999999999</v>
       </c>
@@ -15143,7 +16342,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>0.223</v>
       </c>
@@ -15157,7 +16356,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -15171,7 +16370,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>0.28499999999999998</v>
       </c>
@@ -15185,7 +16384,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>0.22900000000000001</v>
       </c>
@@ -15199,7 +16398,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>0.309</v>
       </c>
@@ -15213,7 +16412,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>0.24399999999999999</v>
       </c>
@@ -15227,7 +16426,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>0.28299999999999997</v>
       </c>
@@ -15241,7 +16440,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>0.22600000000000001</v>
       </c>
@@ -15255,7 +16454,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>0.24199999999999999</v>
       </c>
